--- a/excercises/excercises/40.MF choke calibr.xlsx
+++ b/excercises/excercises/40.MF choke calibr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013BAED1-7A2F-44D7-9203-B1C18FD1464D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9247C5-FE0E-4273-B648-BF07A3AFC2E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -750,6 +750,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,10 +763,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -924,37 +924,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.009857177734375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.3203125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.90625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.15625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>11.375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.9375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>41.0625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>57.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>70.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,37 +1035,37 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.001020431518555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10.1025390625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10.4150390625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10.947265625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11.728515625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12.7734375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>22.03125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.9140625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>41.0546875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>57.1875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>70.234375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,37 +1146,37 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20.000526905059814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20.05279541015625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20.211181640625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>20.47607421875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20.849609375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>21.3330078125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>25.44921875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>32.34375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>41.0546875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>57.1875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>70.234375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,37 +1281,37 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30.000362992286682</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>30.036163330078125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>30.1446533203125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30.325927734375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>30.57861328125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>30.904541015625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>33.6181640625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>38.02734375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>43.88671875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>57.5390625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,37 +1392,37 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>40.000280141830444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>40.027999877929688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>40.1116943359375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>40.25146484375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>40.44677734375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>40.6982421875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>42.763671875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>46.1328125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>50.5859375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>61.5625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>73.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,37 +1503,37 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50.000230967998505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50.023078918457031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50.092315673828125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>50.20751953125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>50.36773681640625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>50.57373046875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>52.276611328125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>55.029296875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>58.69140625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>68.017578125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>78.3203125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,8 +2693,8 @@
   </sheetPr>
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2983,23 +2983,23 @@
       <c r="O25" t="s">
         <v>45</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="30">
         <f>[1]!Choke_calibr_by_MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,calibr_for_fsolve,PVTstr_,Plin_)</f>
-        <v>8.4461406839583614E-2</v>
+        <v>8.4446439331353512E-2</v>
       </c>
       <c r="Q25" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="34">
+      <c r="R25" s="31">
         <f>(E25-p_other_atma)/E25</f>
-        <v>-1.7834079186517633E-4</v>
+        <v>-1.0979763884679059E-6</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="O26" t="s">
         <v>44</v>
       </c>
-      <c r="P26" s="33">
+      <c r="P26" s="30">
         <v>0.5</v>
       </c>
     </row>
@@ -3048,10 +3048,10 @@
       <c r="G29" s="23">
         <v>8.4446346611258841E-2</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="32"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="7">
         <f t="array" ref="K29:M30">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,E25,PVTstr_)</f>
         <v>250</v>
@@ -3065,67 +3065,67 @@
       <c r="N29" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="30">
         <f t="array" ref="O29:S30">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,$P$25,PVTstr_)</f>
         <v>5.859375</v>
       </c>
-      <c r="P29" s="33">
+      <c r="P29" s="30">
         <v>250</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="Q29" s="30">
         <v>5.859375</v>
       </c>
-      <c r="R29" s="33">
+      <c r="R29" s="30">
         <v>30</v>
       </c>
-      <c r="S29" s="33">
-        <v>8.4461406839583614E-2</v>
+      <c r="S29" s="30">
+        <v>8.4446439331353512E-2</v>
       </c>
       <c r="T29" t="s">
         <v>47</v>
       </c>
-      <c r="U29" s="33">
+      <c r="U29" s="30">
         <f t="array" ref="U29:W30">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,P25,PVTstr_)</f>
         <v>244.140625</v>
       </c>
-      <c r="V29" s="33">
+      <c r="V29" s="30">
         <v>30</v>
       </c>
-      <c r="W29" s="33">
-        <v>8.4461406839583614E-2</v>
-      </c>
-      <c r="Y29" s="35" t="e">
+      <c r="W29" s="30">
+        <v>8.4446439331353512E-2</v>
+      </c>
+      <c r="Y29" s="32" t="e">
         <f>(C29-O29)/C29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z29" s="35">
+      <c r="Z29" s="32">
         <f t="shared" ref="Z29:AC29" si="0">(D29-P29)/D29</f>
         <v>0</v>
       </c>
-      <c r="AA29" s="35" t="e">
+      <c r="AA29" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="35">
+      <c r="AB29" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="35">
+      <c r="AC29" s="32">
         <f t="shared" si="0"/>
-        <v>-1.7834079186517633E-4</v>
-      </c>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="35">
+        <v>-1.0979763884679059E-6</v>
+      </c>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="32">
         <f>(K29-U29)/K29</f>
         <v>2.34375E-2</v>
       </c>
-      <c r="AF29" s="35">
+      <c r="AF29" s="32">
         <f t="shared" ref="AF29:AG29" si="1">(L29-V29)/L29</f>
         <v>0</v>
       </c>
-      <c r="AG29" s="35">
+      <c r="AG29" s="32">
         <f t="shared" si="1"/>
-        <v>-1.7834079186517633E-4</v>
+        <v>-1.0979763884679059E-6</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
@@ -3153,50 +3153,50 @@
       <c r="M30" s="7" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="O30" s="33" t="str">
+      <c r="O30" s="30" t="str">
         <v>Pout, atma</v>
       </c>
-      <c r="P30" s="33" t="str">
+      <c r="P30" s="30" t="str">
         <v>p_intake_atma</v>
       </c>
-      <c r="Q30" s="33" t="str">
+      <c r="Q30" s="30" t="str">
         <v>p_out_atma</v>
       </c>
-      <c r="R30" s="33" t="str">
+      <c r="R30" s="30" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="S30" s="33" t="str">
+      <c r="S30" s="30" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="U30" s="33" t="str">
+      <c r="U30" s="30" t="str">
         <v>dP_atm</v>
       </c>
-      <c r="V30" s="33" t="str">
+      <c r="V30" s="30" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="W30" s="33" t="str">
+      <c r="W30" s="30" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="33"/>
+      <c r="AG30" s="33"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
@@ -3208,15 +3208,15 @@
       <c r="D32" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B33" s="26" t="s">
@@ -3238,10 +3238,10 @@
       <c r="G33" s="23">
         <v>8.4446346611258841E-2</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="30"/>
+      <c r="J33" s="34"/>
       <c r="K33" s="7">
         <f t="array" ref="K33:M34">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,E25,PVTstr_)</f>
         <v>246.75</v>
@@ -3255,67 +3255,67 @@
       <c r="N33" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="30">
         <f t="array" ref="O33:S34">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,P25,PVTstr_)</f>
         <v>249.75</v>
       </c>
-      <c r="P33" s="33">
+      <c r="P33" s="30">
         <v>249.75</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="Q33" s="30">
         <v>3</v>
       </c>
-      <c r="R33" s="33">
+      <c r="R33" s="30">
         <v>30</v>
       </c>
-      <c r="S33" s="33">
-        <v>8.4461406839583614E-2</v>
+      <c r="S33" s="30">
+        <v>8.4446439331353512E-2</v>
       </c>
       <c r="T33" t="s">
         <v>28</v>
       </c>
-      <c r="U33" s="33">
+      <c r="U33" s="30">
         <f t="array" ref="U33:W34">[1]!MF_dp_choke_atm(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,P25,PVTstr_)</f>
         <v>246.75</v>
       </c>
-      <c r="V33" s="33">
+      <c r="V33" s="30">
         <v>30</v>
       </c>
-      <c r="W33" s="33">
-        <v>8.4461406839583614E-2</v>
-      </c>
-      <c r="Y33" s="35">
-        <f t="shared" ref="Y30:Y33" si="2">(C33-O33)/C33</f>
+      <c r="W33" s="30">
+        <v>8.4446439331353512E-2</v>
+      </c>
+      <c r="Y33" s="32">
+        <f t="shared" ref="Y33" si="2">(C33-O33)/C33</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="35">
-        <f t="shared" ref="Z30:Z33" si="3">(D33-P33)/D33</f>
+      <c r="Z33" s="32">
+        <f t="shared" ref="Z33" si="3">(D33-P33)/D33</f>
         <v>0</v>
       </c>
-      <c r="AA33" s="35">
-        <f t="shared" ref="AA30:AA33" si="4">(E33-Q33)/E33</f>
+      <c r="AA33" s="32">
+        <f t="shared" ref="AA33" si="4">(E33-Q33)/E33</f>
         <v>0</v>
       </c>
-      <c r="AB33" s="35">
-        <f t="shared" ref="AB30:AB33" si="5">(F33-R33)/F33</f>
+      <c r="AB33" s="32">
+        <f t="shared" ref="AB33" si="5">(F33-R33)/F33</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="35">
-        <f t="shared" ref="AC30:AC33" si="6">(G33-S33)/G33</f>
-        <v>-1.7834079186517633E-4</v>
-      </c>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="35">
-        <f t="shared" ref="AE30:AE33" si="7">(K33-U33)/K33</f>
+      <c r="AC33" s="32">
+        <f t="shared" ref="AC33" si="6">(G33-S33)/G33</f>
+        <v>-1.0979763884679059E-6</v>
+      </c>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="32">
+        <f t="shared" ref="AE33" si="7">(K33-U33)/K33</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="35">
-        <f t="shared" ref="AF30:AF33" si="8">(L33-V33)/L33</f>
+      <c r="AF33" s="32">
+        <f t="shared" ref="AF33" si="8">(L33-V33)/L33</f>
         <v>0</v>
       </c>
-      <c r="AG33" s="35">
-        <f t="shared" ref="AG30:AG33" si="9">(M33-W33)/M33</f>
-        <v>-1.7834079186517633E-4</v>
+      <c r="AG33" s="32">
+        <f t="shared" ref="AG33" si="9">(M33-W33)/M33</f>
+        <v>-1.0979763884679059E-6</v>
       </c>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.2">
@@ -3343,64 +3343,64 @@
       <c r="M34" s="24" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="O34" s="33" t="str">
+      <c r="O34" s="30" t="str">
         <v>Pin, atma</v>
       </c>
-      <c r="P34" s="33" t="str">
+      <c r="P34" s="30" t="str">
         <v>p_intake_atma</v>
       </c>
-      <c r="Q34" s="33" t="str">
+      <c r="Q34" s="30" t="str">
         <v>p_out_atma</v>
       </c>
-      <c r="R34" s="33" t="str">
+      <c r="R34" s="30" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="S34" s="33" t="str">
+      <c r="S34" s="30" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="U34" s="33" t="str">
+      <c r="U34" s="30" t="str">
         <v>dP_atm</v>
       </c>
-      <c r="V34" s="33" t="str">
+      <c r="V34" s="30" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="W34" s="33" t="str">
+      <c r="W34" s="30" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
     </row>
     <row r="35" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
     </row>
     <row r="36" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
     </row>
     <row r="37" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7">
@@ -3419,15 +3419,15 @@
       <c r="G37" s="7">
         <v>8.4446346611258841E-2</v>
       </c>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
     </row>
     <row r="38" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C38" s="25" t="str">
@@ -3445,26 +3445,26 @@
       <c r="G38" s="25" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
     </row>
     <row r="39" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
     </row>
     <row r="40" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
@@ -3473,15 +3473,15 @@
       <c r="N40" t="s">
         <v>30</v>
       </c>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="33"/>
     </row>
     <row r="41" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="24">
@@ -3500,46 +3500,46 @@
       <c r="G41" s="7">
         <v>8.4446346611258841E-2</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="30">
         <f t="array" ref="O41:S42">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,P25,PVTstr_)</f>
-        <v>111.01979582789701</v>
-      </c>
-      <c r="P41" s="33">
+        <v>111.00012187537911</v>
+      </c>
+      <c r="P41" s="30">
         <v>250</v>
       </c>
-      <c r="Q41" s="33">
+      <c r="Q41" s="30">
         <v>3</v>
       </c>
-      <c r="R41" s="33">
+      <c r="R41" s="30">
         <v>30</v>
       </c>
-      <c r="S41" s="33">
-        <v>8.4461406839583614E-2</v>
-      </c>
-      <c r="Y41" s="35">
-        <f t="shared" ref="Y34:Y41" si="10">(C41-O41)/C41</f>
-        <v>-1.783407918651136E-4</v>
-      </c>
-      <c r="Z41" s="35">
+      <c r="S41" s="30">
+        <v>8.4446439331353512E-2</v>
+      </c>
+      <c r="Y41" s="32">
+        <f t="shared" ref="Y41" si="10">(C41-O41)/C41</f>
+        <v>-1.0979763884875325E-6</v>
+      </c>
+      <c r="Z41" s="32">
         <f>(D41-P41)/D41</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="35">
-        <f t="shared" ref="AA34:AA41" si="11">(E41-Q41)/E41</f>
+      <c r="AA41" s="32">
+        <f t="shared" ref="AA41" si="11">(E41-Q41)/E41</f>
         <v>0</v>
       </c>
-      <c r="AB41" s="35">
-        <f t="shared" ref="AB34:AB41" si="12">(F41-R41)/F41</f>
+      <c r="AB41" s="32">
+        <f t="shared" ref="AB41" si="12">(F41-R41)/F41</f>
         <v>0</v>
       </c>
-      <c r="AC41" s="35">
-        <f t="shared" ref="AC34:AC41" si="13">(G41-S41)/G41</f>
-        <v>-1.7834079186517633E-4</v>
-      </c>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="36"/>
+      <c r="AC41" s="32">
+        <f t="shared" ref="AC41" si="13">(G41-S41)/G41</f>
+        <v>-1.0979763884679059E-6</v>
+      </c>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="33"/>
+      <c r="AG41" s="33"/>
     </row>
     <row r="42" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C42" s="24" t="str">
@@ -3557,19 +3557,19 @@
       <c r="G42" s="24" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="O42" s="33" t="str">
+      <c r="O42" s="30" t="str">
         <v>Qliq</v>
       </c>
-      <c r="P42" s="33" t="str">
+      <c r="P42" s="30" t="str">
         <v>p_intake_atma</v>
       </c>
-      <c r="Q42" s="33" t="str">
+      <c r="Q42" s="30" t="str">
         <v>p_out_atma</v>
       </c>
-      <c r="R42" s="33" t="str">
+      <c r="R42" s="30" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="S42" s="33" t="str">
+      <c r="S42" s="30" t="str">
         <v>c_calibr_fr</v>
       </c>
     </row>
@@ -3587,20 +3587,20 @@
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="2:33" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
     </row>
     <row r="49" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="17" t="s">
@@ -3648,52 +3648,52 @@
         <v>1</v>
       </c>
       <c r="C50" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
         <v>1</v>
       </c>
       <c r="D50" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>1.009857177734375</v>
       </c>
       <c r="E50" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>2.3203125</v>
       </c>
       <c r="F50" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>4.625</v>
       </c>
       <c r="G50" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>6.90625</v>
       </c>
       <c r="H50" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>9.15625</v>
       </c>
       <c r="I50" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>11.375</v>
       </c>
       <c r="J50" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>22</v>
       </c>
       <c r="K50" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>31.9375</v>
       </c>
       <c r="L50" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>41.0625</v>
       </c>
       <c r="M50" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>57.125</v>
       </c>
       <c r="N50" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B50,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>70.25</v>
       </c>
       <c r="O50" s="3"/>
     </row>
@@ -3702,52 +3702,52 @@
         <v>10</v>
       </c>
       <c r="C51" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
         <v>10</v>
       </c>
       <c r="D51" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>10.001020431518555</v>
       </c>
       <c r="E51" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>10.1025390625</v>
       </c>
       <c r="F51" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>10.4150390625</v>
       </c>
       <c r="G51" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>10.947265625</v>
       </c>
       <c r="H51" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>11.728515625</v>
       </c>
       <c r="I51" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>12.7734375</v>
       </c>
       <c r="J51" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>22.03125</v>
       </c>
       <c r="K51" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>31.9140625</v>
       </c>
       <c r="L51" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>41.0546875</v>
       </c>
       <c r="M51" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>57.1875</v>
       </c>
       <c r="N51" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B51,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>70.234375</v>
       </c>
       <c r="O51" s="3"/>
     </row>
@@ -3756,52 +3756,52 @@
         <v>20</v>
       </c>
       <c r="C52" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
         <v>20</v>
       </c>
       <c r="D52" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>20.000526905059814</v>
       </c>
       <c r="E52" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>20.05279541015625</v>
       </c>
       <c r="F52" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>20.211181640625</v>
       </c>
       <c r="G52" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>20.47607421875</v>
       </c>
       <c r="H52" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>20.849609375</v>
       </c>
       <c r="I52" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>21.3330078125</v>
       </c>
       <c r="J52" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>25.44921875</v>
       </c>
       <c r="K52" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>32.34375</v>
       </c>
       <c r="L52" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>41.0546875</v>
       </c>
       <c r="M52" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>57.1875</v>
       </c>
       <c r="N52" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B52,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>70.234375</v>
       </c>
       <c r="O52" s="3"/>
     </row>
@@ -3810,52 +3810,52 @@
         <v>30</v>
       </c>
       <c r="C53" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
         <v>30</v>
       </c>
       <c r="D53" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>30.000362992286682</v>
       </c>
       <c r="E53" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>30.036163330078125</v>
       </c>
       <c r="F53" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>30.1446533203125</v>
       </c>
       <c r="G53" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>30.325927734375</v>
       </c>
       <c r="H53" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>30.57861328125</v>
       </c>
       <c r="I53" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>30.904541015625</v>
       </c>
       <c r="J53" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>33.6181640625</v>
       </c>
       <c r="K53" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>38.02734375</v>
       </c>
       <c r="L53" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>43.88671875</v>
       </c>
       <c r="M53" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>57.5390625</v>
       </c>
       <c r="N53" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B53,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>70.3125</v>
       </c>
       <c r="O53" s="3"/>
     </row>
@@ -3864,52 +3864,52 @@
         <v>40</v>
       </c>
       <c r="C54" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
         <v>40</v>
       </c>
       <c r="D54" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>40.000280141830444</v>
       </c>
       <c r="E54" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>40.027999877929688</v>
       </c>
       <c r="F54" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>40.1116943359375</v>
       </c>
       <c r="G54" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>40.25146484375</v>
       </c>
       <c r="H54" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>40.44677734375</v>
       </c>
       <c r="I54" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>40.6982421875</v>
       </c>
       <c r="J54" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>42.763671875</v>
       </c>
       <c r="K54" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>46.1328125</v>
       </c>
       <c r="L54" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>50.5859375</v>
       </c>
       <c r="M54" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>61.5625</v>
       </c>
       <c r="N54" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B54,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>73.125</v>
       </c>
       <c r="O54" s="3"/>
     </row>
@@ -3918,52 +3918,52 @@
         <v>50</v>
       </c>
       <c r="C55" s="7">
-        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
+        <f>[1]!MF_p_choke_atma(C$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
         <v>50</v>
       </c>
       <c r="D55" s="7">
-        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(D$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>50.000230967998505</v>
       </c>
       <c r="E55" s="7">
-        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(E$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>50.023078918457031</v>
       </c>
       <c r="F55" s="7">
-        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(F$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>50.092315673828125</v>
       </c>
       <c r="G55" s="7">
-        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(G$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>50.20751953125</v>
       </c>
       <c r="H55" s="7">
-        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(H$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>50.36773681640625</v>
       </c>
       <c r="I55" s="7">
-        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(I$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>50.57373046875</v>
       </c>
       <c r="J55" s="7">
-        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(J$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>52.276611328125</v>
       </c>
       <c r="K55" s="7">
-        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(K$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>55.029296875</v>
       </c>
       <c r="L55" s="7">
-        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(L$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>58.69140625</v>
       </c>
       <c r="M55" s="7">
-        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(M$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>68.017578125</v>
       </c>
       <c r="N55" s="7">
-        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
-        <v>0</v>
+        <f>[1]!MF_p_choke_atma(N$49,fw_,d_choke,$B55,0,d_pipe,T_choke,1,PVTstr_)</f>
+        <v>78.3203125</v>
       </c>
     </row>
     <row r="56" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
